--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Fan Cable (Fan)/List of materials (fan).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Fan Cable (Fan)/List of materials (fan).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahschoultz/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Fan Cable (Fan)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/Control Board to Fan Cable (Fan)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4BB0D1-F57D-AE49-BB77-7CDC11522B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB32D5A2-6B59-0340-83ED-0AEAC4CC1C65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2500" windowWidth="15760" windowHeight="12460" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
+    <workbookView xWindow="2580" yWindow="1620" windowWidth="27360" windowHeight="16260" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
   <si>
     <t>Material</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Order Number of Distributor</t>
   </si>
   <si>
-    <t>Shrink tube</t>
-  </si>
-  <si>
     <t>Metal braid</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Fan</t>
   </si>
   <si>
-    <t xml:space="preserve">Magnent </t>
-  </si>
-  <si>
     <t>KK 254 tip</t>
   </si>
   <si>
@@ -108,15 +102,9 @@
     <t>Molex</t>
   </si>
   <si>
-    <t>08-65-0816</t>
-  </si>
-  <si>
     <t>Mouser</t>
   </si>
   <si>
-    <t>538-08-65-0816</t>
-  </si>
-  <si>
     <t>KK 254 4 hole connector (white)</t>
   </si>
   <si>
@@ -271,13 +259,118 @@
   </si>
   <si>
     <t>Measuring lengths of materials</t>
+  </si>
+  <si>
+    <t>44in</t>
+  </si>
+  <si>
+    <t>1/8 metal braid</t>
+  </si>
+  <si>
+    <t>Glenair</t>
+  </si>
+  <si>
+    <t>100-001A125</t>
+  </si>
+  <si>
+    <t>654-100001A125</t>
+  </si>
+  <si>
+    <t>4.8mm adhesive shrink tube</t>
+  </si>
+  <si>
+    <t>TE Connectivity / Raychem</t>
+  </si>
+  <si>
+    <t>TAT-125-3/16-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125316</t>
+  </si>
+  <si>
+    <t>6.4mm in adehsive shrink tube</t>
+  </si>
+  <si>
+    <t>TAT-125-1/4-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125014</t>
+  </si>
+  <si>
+    <t>16mm adehsive shrink tube</t>
+  </si>
+  <si>
+    <t>Magnent covers</t>
+  </si>
+  <si>
+    <t>ATUM-16/4-0-STK</t>
+  </si>
+  <si>
+    <t>650-ATUM-16/4-0-STK</t>
+  </si>
+  <si>
+    <t>12.7mm adhesive shrink tube</t>
+  </si>
+  <si>
+    <t>TAT-125-1/2-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125012</t>
+  </si>
+  <si>
+    <t>Fan Joint &amp; Plastic braid</t>
+  </si>
+  <si>
+    <t>Soldering joints</t>
+  </si>
+  <si>
+    <t>Fan Joint</t>
+  </si>
+  <si>
+    <t>3/32 shrink tube</t>
+  </si>
+  <si>
+    <t>3/16 shirnk tube</t>
+  </si>
+  <si>
+    <t>1.5in</t>
+  </si>
+  <si>
+    <t>2.5in</t>
+  </si>
+  <si>
+    <t>3.5in</t>
+  </si>
+  <si>
+    <t>3in</t>
+  </si>
+  <si>
+    <t>2in</t>
+  </si>
+  <si>
+    <t>650-RNF-100-3/16-BK</t>
+  </si>
+  <si>
+    <t>RNF-100-3/16-BK-SP</t>
+  </si>
+  <si>
+    <t>RNF-100-3/32-BK-SP</t>
+  </si>
+  <si>
+    <t>650-RNF-100-3/32-BK</t>
+  </si>
+  <si>
+    <t>29in</t>
+  </si>
+  <si>
+    <t>30in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,13 +406,6 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,19 +427,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -673,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BA75E2-A133-C247-9618-E9CB2A5F5006}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,16 +778,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -714,339 +799,481 @@
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="7" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2675023002</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2643480102</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2675023002</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2643480102</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Fan Cable (Fan)/List of materials (fan).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Fan Cable (Fan)/List of materials (fan).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/Control Board to Fan Cable (Fan)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Fan Cable (Fan)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB32D5A2-6B59-0340-83ED-0AEAC4CC1C65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35F7514-61ED-6849-8F7E-AE5CFF5C2095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1620" windowWidth="27360" windowHeight="16260" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
+    <workbookView xWindow="2580" yWindow="1600" windowWidth="27360" windowHeight="16260" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>Material</t>
   </si>
@@ -195,12 +195,6 @@
     <t>ALPHA WIRE</t>
   </si>
   <si>
-    <t>6712 BK005</t>
-  </si>
-  <si>
-    <t>602-6712-100-02</t>
-  </si>
-  <si>
     <t>6714 BL005</t>
   </si>
   <si>
@@ -213,21 +207,6 @@
     <t>602-6714-100-03</t>
   </si>
   <si>
-    <t>6710 WH005</t>
-  </si>
-  <si>
-    <t>602-6710-100-01</t>
-  </si>
-  <si>
-    <t>6710 YL005</t>
-  </si>
-  <si>
-    <t>602-6710-100-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 Cable Core magnent </t>
-  </si>
-  <si>
     <t xml:space="preserve">43 Cable Core magnent </t>
   </si>
   <si>
@@ -364,6 +343,48 @@
   </si>
   <si>
     <t>30in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long 75 Cable Core magnent </t>
+  </si>
+  <si>
+    <t>6710 YL001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-05</t>
+  </si>
+  <si>
+    <t>6710 WH001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-01</t>
+  </si>
+  <si>
+    <t>6712 BK001</t>
+  </si>
+  <si>
+    <t>602-6712-1000-02</t>
+  </si>
+  <si>
+    <t>08-65-0816</t>
+  </si>
+  <si>
+    <t>538-08-65-0816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fan Joint </t>
+  </si>
+  <si>
+    <t>1in</t>
+  </si>
+  <si>
+    <t>.5in</t>
+  </si>
+  <si>
+    <t>DWP-125-1/2-0-STK</t>
+  </si>
+  <si>
+    <t>650-DWP-125-1/2-0</t>
   </si>
 </sst>
 </file>
@@ -427,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -437,13 +458,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BA75E2-A133-C247-9618-E9CB2A5F5006}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E16" sqref="E16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,19 +837,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>60</v>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -841,25 +864,25 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>62</v>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -870,19 +893,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -897,19 +920,19 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
         <v>34</v>
@@ -926,17 +949,17 @@
         <v>6</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>54</v>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
       </c>
       <c r="L6" t="s">
         <v>36</v>
@@ -947,7 +970,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5">
@@ -963,18 +986,18 @@
         <v>22</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5">
@@ -1001,25 +1024,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
         <v>40</v>
@@ -1030,25 +1053,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
         <v>42</v>
@@ -1059,25 +1082,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
       </c>
       <c r="L11" t="s">
         <v>43</v>
@@ -1086,25 +1109,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>104</v>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
       </c>
       <c r="L12" t="s">
         <v>44</v>
@@ -1114,26 +1137,26 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>80</v>
+      <c r="A13" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>83</v>
+      <c r="G13" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="L13" t="s">
         <v>46</v>
@@ -1144,25 +1167,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>48</v>
@@ -1173,107 +1196,138 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>91</v>
+      <c r="A16" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Fan Cable (Fan)/List of materials (fan).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Fan Cable (Fan)/List of materials (fan).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Fan Cable (Fan)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35F7514-61ED-6849-8F7E-AE5CFF5C2095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDAC6EC-1D54-844F-87E7-66C452704D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1600" windowWidth="27360" windowHeight="16260" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
+    <workbookView xWindow="2580" yWindow="1580" windowWidth="27360" windowHeight="16260" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
   <si>
     <t>Material</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>650-DWP-125-1/2-0</t>
+  </si>
+  <si>
+    <t>22in</t>
   </si>
 </sst>
 </file>
@@ -459,14 +462,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,7 +787,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:G16"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,7 +836,7 @@
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -862,7 +865,7 @@
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
         <v>68</v>
       </c>
@@ -889,7 +892,7 @@
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -918,7 +921,7 @@
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
         <v>68</v>
       </c>
@@ -948,7 +951,9 @@
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="D6" t="s">
         <v>52</v>
       </c>
@@ -1076,7 +1081,7 @@
       <c r="L10" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1105,7 +1110,7 @@
       <c r="L11" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -1282,7 +1287,7 @@
       <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F18" t="s">
@@ -1293,7 +1298,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
